--- a/data/enzyme_inactivation/Slide 2 - Activity effect of incubating CotA in MTP.xlsx
+++ b/data/enzyme_inactivation/Slide 2 - Activity effect of incubating CotA in MTP.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxhaussler/Dropbox/master_thesis/data/paulo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/maxhaussler/Dropbox/master_thesis/masterthesis/data/enzyme_inactivation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8E44C0-4B61-C14A-BDCB-6B2AC48D5F11}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5CDAB3B-FEE7-3C47-926F-BA226CECA21E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-100" yWindow="500" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{B62F5175-831D-418E-9F93-C18B181ACD6B}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="23260" windowHeight="12580" activeTab="1" xr2:uid="{B62F5175-831D-418E-9F93-C18B181ACD6B}"/>
   </bookViews>
   <sheets>
     <sheet name="Remaining activity" sheetId="1" r:id="rId1"/>
